--- a/data/trans_orig/P41C1_AOS_2023_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P41C1_AOS_2023_R-Dificultad-trans_orig.xlsx
@@ -578,10 +578,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>1.462251245858303</v>
+        <v>1.540872894936091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.899788796090471</v>
+        <v>1.832603126879515</v>
       </c>
     </row>
     <row r="6">
@@ -593,10 +593,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>6.441887033845513</v>
+        <v>6.530716974832997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.317299120474217</v>
+        <v>6.116818669273141</v>
       </c>
     </row>
     <row r="7">
@@ -614,7 +614,7 @@
         <v>1.395856769715316</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3.162876039194789</v>
+        <v>3.16287603919479</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>2.512965039971108</v>
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3203736995861018</v>
+        <v>0.3636799956084683</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.845021244592098</v>
+        <v>1.880120391928694</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.43164220675565</v>
+        <v>1.475918745542558</v>
       </c>
     </row>
     <row r="9">
@@ -645,13 +645,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.033768471267899</v>
+        <v>4.020388764846368</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.39728094458243</v>
+        <v>6.598501504207567</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.845174126507342</v>
+        <v>4.647632629236075</v>
       </c>
     </row>
     <row r="10">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.447845571920427</v>
+        <v>1.29155022060465</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.132277496033257</v>
+        <v>2.296690708336808</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.154530856629925</v>
+        <v>1.977909555291974</v>
       </c>
     </row>
     <row r="12">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.924563449121983</v>
+        <v>3.810809533644135</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.996027068746677</v>
+        <v>8.644915636728307</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.656248123240676</v>
+        <v>5.135010376266877</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>4.416732312095774</v>
+        <v>4.416732312095775</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>2.464568402817521</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.478171035479409</v>
+        <v>2.474670589969102</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.405114163001476</v>
+        <v>1.349610409427245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.39256065339545</v>
+        <v>2.354776305097785</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.612045536649038</v>
+        <v>8.616921026570811</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.837334984048057</v>
+        <v>3.754720955176468</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.760108922361365</v>
+        <v>6.50682720598762</v>
       </c>
     </row>
     <row r="16">
@@ -779,10 +779,10 @@
         <v>2.93362312337045</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.394675804106369</v>
+        <v>3.394675804106368</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.168325397167558</v>
+        <v>3.168325397167559</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.006168497700266</v>
+        <v>1.984211764405174</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.436036424404034</v>
+        <v>2.488965177101705</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.461300903707347</v>
+        <v>2.431437999789246</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.486115380737616</v>
+        <v>4.594934039184221</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.896920965576298</v>
+        <v>5.024845010256515</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.156259457898665</v>
+        <v>4.286037512241818</v>
       </c>
     </row>
     <row r="19">
